--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\KFUPM Faculty\211\SWE206\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdul\GitSWEProject\swe-pro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5385D188-FC28-48BC-B469-1B2004474D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D866E21D-0266-443F-88AE-93DFFE5EC854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{54FEB0A3-0501-489B-8C15-4473C17019CE}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{54FEB0A3-0501-489B-8C15-4473C17019CE}"/>
   </bookViews>
   <sheets>
     <sheet name="STC &amp; Nokia" sheetId="1" r:id="rId1"/>
@@ -493,18 +493,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F561AD-E3DE-472F-BAA5-49F2250B30C2}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -512,7 +512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -528,7 +528,7 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -595,7 +595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -618,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -651,19 +651,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51007B-8ACE-4628-8795-6036C126B75A}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -671,7 +671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -679,7 +679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -687,7 +687,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -719,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -736,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -753,7 +753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -776,6 +776,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0F4BD9A06E27D47B3902887246EC2B9" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fa25b5308be82066b94ec963cb0e7f8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a97023e5-11bd-43d5-b639-e24feb137d68" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="caf71539c53fb9c71a07dcb8413c1f25" ns2:_="">
     <xsd:import namespace="a97023e5-11bd-43d5-b639-e24feb137d68"/>
@@ -945,29 +960,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1099332E-CF98-4BFA-96BD-3784B5DA445C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0260C0F0-AB7E-46B0-8153-5ED061B67A28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F8ACC8F-85F7-4D13-899B-8364E09F3562}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F8ACC8F-85F7-4D13-899B-8364E09F3562}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0260C0F0-AB7E-46B0-8153-5ED061B67A28}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1099332E-CF98-4BFA-96BD-3784B5DA445C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a97023e5-11bd-43d5-b639-e24feb137d68"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -7,14 +7,16 @@
   </bookViews>
   <sheets>
     <sheet name="Name" r:id="rId3" sheetId="1"/>
-    <sheet name="CyberuHub" r:id="rId4" sheetId="2"/>
-    <sheet name="AIoT Hackathon with stc" r:id="rId5" sheetId="3"/>
+    <sheet name="hakathon" r:id="rId4" sheetId="2"/>
+    <sheet name="CTF" r:id="rId5" sheetId="3"/>
+    <sheet name="CyberuHub" r:id="rId6" sheetId="4"/>
+    <sheet name="new challange" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>Competition</t>
   </si>
@@ -43,6 +45,21 @@
     <t>Rank</t>
   </si>
   <si>
+    <t>hakathon</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>CTF</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
     <t>CyberuHub</t>
   </si>
   <si>
@@ -97,55 +114,7 @@
     <t>SWE</t>
   </si>
   <si>
-    <t>AIoT Hackathon with stc</t>
-  </si>
-  <si>
-    <t>https://ultrahack.org/aiot-hackathon-stc</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>Team Name</t>
-  </si>
-  <si>
-    <t>SuperDevops</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>222243860</t>
-  </si>
-  <si>
-    <t>Bassel Alqahtani</t>
-  </si>
-  <si>
-    <t>222246560</t>
-  </si>
-  <si>
-    <t>Naif Essam</t>
-  </si>
-  <si>
-    <t>StackUnderflow</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>222219260</t>
-  </si>
-  <si>
-    <t>Majed Ahmad</t>
-  </si>
-  <si>
-    <t>COE</t>
-  </si>
-  <si>
-    <t>222267500</t>
-  </si>
-  <si>
-    <t>Saleh Mohammed</t>
+    <t>new challange</t>
   </si>
 </sst>
 </file>
@@ -272,6 +241,132 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="12.01953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.53515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.42578125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>36872.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="12.01953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.53515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.4765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.62890625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.42578125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>36880.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -290,7 +385,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -298,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -306,7 +401,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>44471.0</v>
+        <v>44836.0</v>
       </c>
     </row>
     <row r="5">
@@ -329,16 +424,16 @@
         <v>1.0</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -346,16 +441,16 @@
         <v>2.0</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -363,16 +458,16 @@
         <v>3.0</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -380,16 +475,16 @@
         <v>4.0</v>
       </c>
       <c r="B9" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s" s="1">
         <v>24</v>
-      </c>
-      <c r="C9" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s" s="1">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -397,20 +492,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.01953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.53515625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="6.0703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.4765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.81640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.62890625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.42578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -419,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -427,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>44481.0</v>
+        <v>44897.0</v>
       </c>
     </row>
     <row r="5">
@@ -450,105 +545,13 @@
         <v>7</v>
       </c>
       <c r="E5" t="s" s="1">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s" s="1">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B6" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="E6" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F6" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B7" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="E7" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F7" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B8" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="E8" t="n" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F8" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B9" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="E9" t="n" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F9" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s" s="1">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
